--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeyne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEEE825-A2A4-4E4F-9CB3-C2AE1A0466DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
   <si>
     <t>Sıra</t>
   </si>
@@ -573,7 +574,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -765,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +823,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,20 +1106,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1341,7 +1349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1349,24 +1357,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1">
-      <c r="A18" s="11">
+    <row r="18" spans="1:25" s="15" customFormat="1">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="15" customFormat="1">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+    </row>
+    <row r="19" spans="1:25" s="15" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1380,7 +1402,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="15" customFormat="1">
+    <row r="20" spans="1:25" s="15" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1394,7 +1416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="15" customFormat="1">
+    <row r="21" spans="1:25" s="15" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1416,7 +1438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1">
+    <row r="23" spans="1:25" s="15" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1430,7 +1452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="10" customFormat="1">
+    <row r="24" spans="1:25" s="10" customFormat="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="15" customFormat="1">
+    <row r="25" spans="1:25" s="15" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1461,7 +1483,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1">
+    <row r="26" spans="1:25" s="15" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1475,7 +1497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1483,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1510,7 +1532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1518,13 +1540,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3">
+    <row r="32" spans="1:25">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="C32" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5">
@@ -2442,7 +2475,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.95" customHeight="1">
+    <row r="114" spans="1:4" ht="13.9" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" t="s">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeyne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="184">
   <si>
     <t>Sıra</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Melih Tunahan Bağ</t>
+  </si>
+  <si>
+    <t>Zeliha Asar</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1559,12 +1562,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3">
+    <row r="36" spans="1:5" s="15" customFormat="1">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="15" customFormat="1">
@@ -1865,12 +1874,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3">
+    <row r="66" spans="1:5" s="15" customFormat="1">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEEE825-A2A4-4E4F-9CB3-C2AE1A0466DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D9033-C273-4A3F-B181-F14AA2075052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="184">
   <si>
     <t>Sıra</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Melih Tunahan Bağ</t>
+  </si>
+  <si>
+    <t>Zeliha Asar</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,13 +826,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1349,7 +1345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1357,38 +1353,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="15" customFormat="1">
-      <c r="A18" s="22">
+    <row r="18" spans="1:5" s="15" customFormat="1">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-    </row>
-    <row r="19" spans="1:25" s="15" customFormat="1">
+      <c r="C18" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="15" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1402,7 +1384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="15" customFormat="1">
+    <row r="20" spans="1:5" s="15" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1416,7 +1398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="15" customFormat="1">
+    <row r="21" spans="1:5" s="15" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1430,7 +1412,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1438,7 +1420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="15" customFormat="1">
+    <row r="23" spans="1:5" s="15" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1452,7 +1434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="10" customFormat="1">
+    <row r="24" spans="1:5" s="10" customFormat="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1469,7 +1451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="15" customFormat="1">
+    <row r="25" spans="1:5" s="15" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1483,7 +1465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="15" customFormat="1">
+    <row r="26" spans="1:5" s="15" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1497,7 +1479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1505,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1513,7 +1495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1524,7 +1506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1532,7 +1514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1540,24 +1522,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="11">
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5">
@@ -1592,12 +1563,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3">
+    <row r="36" spans="1:5" s="15" customFormat="1">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="15" customFormat="1">
@@ -1898,12 +1875,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3">
+    <row r="66" spans="1:5" s="15" customFormat="1">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D9033-C273-4A3F-B181-F14AA2075052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7793A35B-0702-4215-8444-F877F23F7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="184">
   <si>
     <t>Sıra</t>
   </si>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1464,6 +1464,9 @@
       <c r="D25" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E25" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="15" customFormat="1">
       <c r="A26" s="11">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7793A35B-0702-4215-8444-F877F23F7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C38B97-0FF3-4B24-B794-03B6EC1BE96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="184">
   <si>
     <t>Sıra</t>
   </si>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1345,7 +1345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1">
+    <row r="18" spans="1:9" s="15" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1">
+    <row r="19" spans="1:9" s="15" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="15" customFormat="1">
+    <row r="20" spans="1:9" s="15" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="15" customFormat="1">
+    <row r="21" spans="1:9" s="15" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1">
+    <row r="23" spans="1:9" s="15" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="10" customFormat="1">
+    <row r="24" spans="1:9" s="10" customFormat="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="15" customFormat="1">
+    <row r="25" spans="1:9" s="15" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1">
+    <row r="26" spans="1:9" s="15" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1525,13 +1525,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3">
+    <row r="32" spans="1:9">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="C32" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5">
